--- a/Documentación/Sprints/AnalisisDiseño_Sprint3.xlsx
+++ b/Documentación/Sprints/AnalisisDiseño_Sprint3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis1" sheetId="1" r:id="rId1"/>
@@ -181,17 +181,17 @@
     <t>El sistema conoce el id del usuario y debate</t>
   </si>
   <si>
-    <t>(1) Se le asigna postura al usuario en ede debate determinado</t>
-  </si>
-  <si>
     <t>SPRINT 3</t>
+  </si>
+  <si>
+    <t>(1) Se crea la instancia postura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -215,11 +215,6 @@
       <color theme="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -235,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -467,32 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -522,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -589,6 +558,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,12 +579,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -616,38 +600,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,6 +757,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="546100" y="1079500"/>
+          <a:ext cx="7912100" cy="3416300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1064,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1081,7 +1082,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1094,11 +1095,11 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
@@ -1107,104 +1108,104 @@
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
+      <c r="D7" s="25"/>
+      <c r="G7"/>
+      <c r="H7"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36"/>
+      <c r="D9" s="25"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="20" t="s">
         <v>36</v>
       </c>
@@ -1215,33 +1216,24 @@
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="31"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
+  <mergeCells count="16">
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -1250,6 +1242,14 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView zoomScale="125" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="2:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="11"/>
@@ -1286,10 +1286,10 @@
       <c r="K1" s="11"/>
     </row>
     <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="41"/>
       <c r="E2" s="22" t="s">
         <v>25</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="21" x14ac:dyDescent="0.2">
@@ -1524,7 +1524,7 @@
   <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1534,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="34" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="21" x14ac:dyDescent="0.25">

--- a/Documentación/Sprints/AnalisisDiseño_Sprint3.xlsx
+++ b/Documentación/Sprints/AnalisisDiseño_Sprint3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Paula/ICI 2013/VIII Semestre/Taller Ing Software/RedDebate/Documentación/Sprints/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Paula/ICI 2013/VIII Semestre/Taller Ing Software/RedDebate/Documentación/Sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -558,6 +558,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -570,43 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,6 +627,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67006</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="1345322"/>
+          <a:ext cx="5850391" cy="3226678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -707,7 +750,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1066,7 +1109,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1095,11 +1138,11 @@
       <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="F3" s="22" t="s">
         <v>26</v>
       </c>
@@ -1108,37 +1151,37 @@
       <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="37"/>
       <c r="G7"/>
       <c r="H7"/>
     </row>
@@ -1146,66 +1189,66 @@
       <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="37"/>
       <c r="F9" s="22"/>
     </row>
     <row r="10" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="2:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="92" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="20" t="s">
         <v>36</v>
       </c>
@@ -1216,24 +1259,32 @@
       <c r="D17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="13"/>
     </row>
     <row r="20" spans="2:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
@@ -1242,16 +1293,9 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
